--- a/Industry/201612-201908/HKD/MILLION/Analysis_38_27.1.1 - Toys & Dolls (HS Codes)_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_38_27.1.1 - Toys & Dolls (HS Codes)_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="2304" yWindow="1644"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -25609,6 +25610,345 @@
     <col bestFit="1" customWidth="1" max="1" min="1" width="9"/>
     <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
     <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" width="10"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="10"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20518.587</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18897.167</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-7.902</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11085.535</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17188.906</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-9.039999999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10774.905</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.802</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10515.507</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8895.397000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-15.407</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4431.287</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6678.234</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-24.925</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3925.403</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-11.416</v>
+      </c>
+      <c r="J3" t="n">
+        <v>51.249</v>
+      </c>
+      <c r="K3" t="n">
+        <v>47.073</v>
+      </c>
+      <c r="L3" t="n">
+        <v>39.974</v>
+      </c>
+      <c r="M3" t="n">
+        <v>38.852</v>
+      </c>
+      <c r="N3" t="n">
+        <v>36.431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4814.539</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4991.628</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.678</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3173.382</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5114.262</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.457</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3363.09</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.978</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23.464</v>
+      </c>
+      <c r="K4" t="n">
+        <v>26.415</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28.626</v>
+      </c>
+      <c r="M4" t="n">
+        <v>29.753</v>
+      </c>
+      <c r="N4" t="n">
+        <v>31.212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2125.473</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2121.801</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.173</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1419.159</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2157.378</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.677</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1336.518</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-5.823</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10.359</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.228</v>
+      </c>
+      <c r="L5" t="n">
+        <v>12.802</v>
+      </c>
+      <c r="M5" t="n">
+        <v>12.551</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12.404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1783.825</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1588.228</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-10.965</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1287.357</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1848.737</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16.402</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1114.618</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-13.418</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8.694000000000001</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.404999999999999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11.613</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10.755</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10.345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1279.243</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1300.112</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.631</v>
+      </c>
+      <c r="E7" t="n">
+        <v>774.35</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1390.295</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.937</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1035.276</v>
+      </c>
+      <c r="I7" t="n">
+        <v>33.696</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.235</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.985</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8.087999999999999</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.608000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="9"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
     <col bestFit="1" customWidth="1" max="5" min="5" width="9"/>
     <col bestFit="1" customWidth="1" max="6" min="6" width="10"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
